--- a/results/CA/model_results.xlsx
+++ b/results/CA/model_results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8349224696528211</v>
+        <v>0.8518993066906615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1595413188013707</v>
+        <v>0.1690824380335535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.74</v>
+        <v>0.7367906066536204</v>
       </c>
       <c r="E2" t="n">
-        <v>49096.16451919545</v>
+        <v>46051.7478635804</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8479747450079271</v>
+        <v>0.8550463317523451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.161290207505104</v>
+        <v>0.1662750688711518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>0.7446183953033269</v>
       </c>
       <c r="E3" t="n">
-        <v>47115.24506127674</v>
+        <v>45559.83866712334</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6661824043898663</v>
+        <v>0.6616725359431227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2584894301888844</v>
+        <v>0.2938011756630212</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5257142857142857</v>
+        <v>0.474559686888454</v>
       </c>
       <c r="E4" t="n">
-        <v>69816.51981056467</v>
+        <v>69604.32066745973</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6879906585638618</v>
+        <v>0.6781529782285141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2574711109238005</v>
+        <v>0.2919574826877662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.4667318982387476</v>
       </c>
       <c r="E5" t="n">
-        <v>67497.45259040437</v>
+        <v>67887.89141201846</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8315155511673549</v>
+        <v>0.8016464886531494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1785834713156258</v>
+        <v>0.2124396871074345</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6942857142857143</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="E6" t="n">
-        <v>49600.20767427648</v>
+        <v>53295.12913925923</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8392203177422269</v>
+        <v>0.816924994177087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1750528019897089</v>
+        <v>0.2057637726716372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6771428571428572</v>
+        <v>0.6457925636007827</v>
       </c>
       <c r="E7" t="n">
-        <v>48452.83212184653</v>
+        <v>51201.43120229485</v>
       </c>
     </row>
   </sheetData>

--- a/results/CA/model_results.xlsx
+++ b/results/CA/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>RMSE</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_log</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,16 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8518993066906615</v>
+        <v>0.847977003070177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1690824380335535</v>
+        <v>0.163857626772614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7367906066536204</v>
+        <v>0.7436399217221135</v>
       </c>
       <c r="E2" t="n">
-        <v>46051.7478635804</v>
+        <v>45977.74143763602</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.009783185413548759</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8550463317523451</v>
+        <v>0.8494662092585529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1662750688711518</v>
+        <v>0.1635659042615282</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7446183953033269</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="E3" t="n">
-        <v>45559.83866712334</v>
+        <v>45751.98991505089</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.009496825735362802</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6616725359431227</v>
+        <v>0.6501909922883109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2938011756630212</v>
+        <v>0.2938355406946628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.474559686888454</v>
+        <v>0.4818982387475538</v>
       </c>
       <c r="E4" t="n">
-        <v>69604.32066745973</v>
+        <v>69744.2619757529</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02778833760406529</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6781529782285141</v>
+        <v>0.6640191425588853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2919574826877662</v>
+        <v>0.2879901053121662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4667318982387476</v>
+        <v>0.4897260273972603</v>
       </c>
       <c r="E5" t="n">
-        <v>67887.89141201846</v>
+        <v>68351.8471934737</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02540903067574253</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8016464886531494</v>
+        <v>0.7981242649323179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2124396871074345</v>
+        <v>0.2063611092849767</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.6218199608610567</v>
       </c>
       <c r="E6" t="n">
-        <v>53295.12913925923</v>
+        <v>52982.81748962995</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01301726969948199</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.816924994177087</v>
+        <v>0.8077380324631411</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2057637726716372</v>
+        <v>0.205027704878998</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6457925636007827</v>
+        <v>0.6306262230919765</v>
       </c>
       <c r="E7" t="n">
-        <v>51201.43120229485</v>
+        <v>51705.84975869617</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01283569376351007</v>
       </c>
     </row>
   </sheetData>

--- a/results/CA/model_results.xlsx
+++ b/results/CA/model_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,23 +490,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gradient Boosting (DeepWalk)</t>
+          <t>Gradient Boosting (Node2Vec)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8494662092585529</v>
+        <v>0.8521771020038872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1635659042615282</v>
+        <v>0.1624131998003263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7397260273972602</v>
+        <v>0.7348336594911937</v>
       </c>
       <c r="E3" t="n">
-        <v>45751.98991505089</v>
+        <v>45338.15520033974</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009496825735362802</v>
+        <v>0.009545390095492264</v>
       </c>
     </row>
     <row r="4">
@@ -534,23 +534,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Linear Regression (DeepWalk)</t>
+          <t>Linear Regression (Node2Vec)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6640191425588853</v>
+        <v>0.6557290346964824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2879901053121662</v>
+        <v>0.2945092232491384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4897260273972603</v>
+        <v>0.4818982387475538</v>
       </c>
       <c r="E5" t="n">
-        <v>68351.8471934737</v>
+        <v>69189.9771780195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02540903067574253</v>
+        <v>0.02720794124170811</v>
       </c>
     </row>
     <row r="6">
@@ -578,23 +578,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Random Forest (DeepWalk)</t>
+          <t>Random Forest (Node2Vec)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8077380324631411</v>
+        <v>0.8090134997678307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205027704878998</v>
+        <v>0.1998329861731335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6306262230919765</v>
+        <v>0.651174168297456</v>
       </c>
       <c r="E7" t="n">
-        <v>51705.84975869617</v>
+        <v>51534.05587057824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01283569376351007</v>
+        <v>0.0125831022157079</v>
       </c>
     </row>
   </sheetData>
